--- a/scripts/EPCCMGCutoverTemplate.xlsx
+++ b/scripts/EPCCMGCutoverTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>用户数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,14 @@
   </si>
   <si>
     <t>show vm 1 virtual fp | match "Worker" context all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHSAEGW35BNK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHSAEGW36BNK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1083,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1407,7 +1415,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>23</v>
@@ -1425,334 +1433,374 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4">
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4">
         <v>43404.875</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6">
-        <v>30.1</v>
-      </c>
-      <c r="C21" s="6">
-        <v>59.916666666666664</v>
-      </c>
-      <c r="D21" s="6">
-        <v>27.03125</v>
-      </c>
-      <c r="E21" s="7">
-        <v>4.182861328125</v>
-      </c>
-      <c r="F21" s="7">
-        <v>15.127197265625</v>
-      </c>
-      <c r="G21" s="7">
-        <v>19.31005859375</v>
-      </c>
-      <c r="H21" s="5">
-        <v>698573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6">
-        <v>26.425000000000001</v>
-      </c>
-      <c r="C22" s="6">
-        <v>45.75</v>
-      </c>
-      <c r="D22" s="6">
-        <v>28.90625</v>
-      </c>
-      <c r="E22" s="7">
-        <v>3.118896484375</v>
-      </c>
-      <c r="F22" s="7">
-        <v>13.86669921875</v>
-      </c>
-      <c r="G22" s="7">
-        <v>16.985595703125</v>
-      </c>
-      <c r="H22" s="5">
-        <v>630718</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B23" s="6">
-        <v>25.5</v>
+        <v>30.1</v>
       </c>
       <c r="C23" s="6">
-        <v>39.541666666666664</v>
+        <v>59.916666666666664</v>
       </c>
       <c r="D23" s="6">
-        <v>29.875</v>
+        <v>27.03125</v>
       </c>
       <c r="E23" s="7">
-        <v>4.00634765625</v>
+        <v>4.182861328125</v>
       </c>
       <c r="F23" s="7">
-        <v>12.248046875</v>
+        <v>15.127197265625</v>
       </c>
       <c r="G23" s="7">
-        <v>16.25439453125</v>
+        <v>19.31005859375</v>
       </c>
       <c r="H23" s="5">
-        <v>580480</v>
+        <v>698573</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="6">
-        <v>26.925000000000001</v>
+        <v>26.425000000000001</v>
       </c>
       <c r="C24" s="6">
-        <v>40.583333333333336</v>
+        <v>45.75</v>
       </c>
       <c r="D24" s="6">
-        <v>26.25</v>
+        <v>28.90625</v>
       </c>
       <c r="E24" s="7">
-        <v>3.102783203125</v>
+        <v>3.118896484375</v>
       </c>
       <c r="F24" s="7">
-        <v>10.691650390625</v>
+        <v>13.86669921875</v>
       </c>
       <c r="G24" s="7">
-        <v>13.79443359375</v>
+        <v>16.985595703125</v>
       </c>
       <c r="H24" s="5">
-        <v>595854</v>
+        <v>630718</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="6">
-        <v>26.55</v>
+        <v>25.5</v>
       </c>
       <c r="C25" s="6">
-        <v>42.541666666666664</v>
+        <v>39.541666666666664</v>
       </c>
       <c r="D25" s="6">
-        <v>26.1875</v>
+        <v>29.875</v>
       </c>
       <c r="E25" s="7">
-        <v>4.114501953125</v>
+        <v>4.00634765625</v>
       </c>
       <c r="F25" s="7">
-        <v>13.299560546875</v>
+        <v>12.248046875</v>
       </c>
       <c r="G25" s="7">
-        <v>17.4140625</v>
+        <v>16.25439453125</v>
       </c>
       <c r="H25" s="5">
-        <v>591366</v>
+        <v>580480</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="6">
-        <v>26.324999999999999</v>
+        <v>26.925000000000001</v>
       </c>
       <c r="C26" s="6">
-        <v>42.458333333333336</v>
+        <v>40.583333333333336</v>
       </c>
       <c r="D26" s="6">
-        <v>26.125</v>
+        <v>26.25</v>
       </c>
       <c r="E26" s="7">
-        <v>4.0283203125</v>
+        <v>3.102783203125</v>
       </c>
       <c r="F26" s="7">
-        <v>13.634521484375</v>
+        <v>10.691650390625</v>
       </c>
       <c r="G26" s="7">
-        <v>17.662841796875</v>
+        <v>13.79443359375</v>
       </c>
       <c r="H26" s="5">
-        <v>598118</v>
+        <v>595854</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="6">
-        <v>26.875</v>
+        <v>26.55</v>
       </c>
       <c r="C27" s="6">
-        <v>47.083333333333336</v>
+        <v>42.541666666666664</v>
       </c>
       <c r="D27" s="6">
-        <v>28.75</v>
+        <v>26.1875</v>
       </c>
       <c r="E27" s="7">
-        <v>2.855224609375</v>
+        <v>4.114501953125</v>
       </c>
       <c r="F27" s="7">
-        <v>11.830078125</v>
+        <v>13.299560546875</v>
       </c>
       <c r="G27" s="7">
-        <v>14.685302734375</v>
+        <v>17.4140625</v>
       </c>
       <c r="H27" s="5">
-        <v>638878</v>
+        <v>591366</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28" s="6">
+        <v>26.324999999999999</v>
+      </c>
+      <c r="C28" s="6">
+        <v>42.458333333333336</v>
+      </c>
+      <c r="D28" s="6">
         <v>26.125</v>
       </c>
-      <c r="C28" s="6">
-        <v>47</v>
-      </c>
-      <c r="D28" s="6">
-        <v>28.34375</v>
-      </c>
       <c r="E28" s="7">
-        <v>3.68798828125</v>
+        <v>4.0283203125</v>
       </c>
       <c r="F28" s="7">
-        <v>13.38427734375</v>
+        <v>13.634521484375</v>
       </c>
       <c r="G28" s="7">
-        <v>17.072265625</v>
+        <v>17.662841796875</v>
       </c>
       <c r="H28" s="5">
-        <v>624112</v>
+        <v>598118</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="6">
-        <v>25.024999999999999</v>
+        <v>26.875</v>
       </c>
       <c r="C29" s="6">
-        <v>42.916666666666664</v>
+        <v>47.083333333333336</v>
       </c>
       <c r="D29" s="6">
-        <v>27.8125</v>
+        <v>28.75</v>
       </c>
       <c r="E29" s="7">
-        <v>3.82763671875</v>
+        <v>2.855224609375</v>
       </c>
       <c r="F29" s="7">
-        <v>12.2890625</v>
+        <v>11.830078125</v>
       </c>
       <c r="G29" s="7">
-        <v>16.11669921875</v>
+        <v>14.685302734375</v>
       </c>
       <c r="H29" s="5">
-        <v>600254</v>
+        <v>638878</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="6">
+        <v>26.125</v>
+      </c>
+      <c r="C30" s="6">
+        <v>47</v>
+      </c>
+      <c r="D30" s="6">
+        <v>28.34375</v>
+      </c>
+      <c r="E30" s="7">
+        <v>3.68798828125</v>
+      </c>
+      <c r="F30" s="7">
+        <v>13.38427734375</v>
+      </c>
+      <c r="G30" s="7">
+        <v>17.072265625</v>
+      </c>
+      <c r="H30" s="5">
+        <v>624112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="6">
+        <v>25.024999999999999</v>
+      </c>
+      <c r="C31" s="6">
+        <v>42.916666666666664</v>
+      </c>
+      <c r="D31" s="6">
+        <v>27.8125</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3.82763671875</v>
+      </c>
+      <c r="F31" s="7">
+        <v>12.2890625</v>
+      </c>
+      <c r="G31" s="7">
+        <v>16.11669921875</v>
+      </c>
+      <c r="H31" s="5">
+        <v>600254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B32" s="6">
         <v>25.5</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C32" s="6">
         <v>45.666666666666664</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D32" s="6">
         <v>27.5625</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E32" s="7">
         <v>3.552734375</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F32" s="7">
         <v>12.682373046875</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G32" s="7">
         <v>16.235107421875</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H32" s="5">
         <v>619549</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>28</v>
       </c>
     </row>

--- a/scripts/EPCCMGCutoverTemplate.xlsx
+++ b/scripts/EPCCMGCutoverTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>用户数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,24 +99,6 @@
   </si>
   <si>
     <t>SGI流量(Gb/s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>755112</t>
-  </si>
-  <si>
-    <t>27.42 %</t>
-  </si>
-  <si>
-    <t>25.36%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -681,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -731,7 +713,7 @@
         <v>725280</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:11">
@@ -974,10 +956,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -994,92 +976,92 @@
         <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="G18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="L19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="L20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:12">
       <c r="L21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:12">
       <c r="L27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="L28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1093,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1112,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -1137,271 +1119,131 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
-        <v>33.35</v>
-      </c>
-      <c r="C3" s="6">
-        <v>60.5</v>
-      </c>
-      <c r="D3" s="6">
-        <v>33.25</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3.388671875</v>
-      </c>
-      <c r="F3" s="7">
-        <v>13.55322265625</v>
-      </c>
-      <c r="G3" s="7">
-        <v>16.94189453125</v>
-      </c>
-      <c r="H3" s="5">
-        <v>705967</v>
-      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6">
-        <v>28.4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>45.416666666666664</v>
-      </c>
-      <c r="D4" s="6">
-        <v>34.15625</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3.06103515625</v>
-      </c>
-      <c r="F4" s="7">
-        <v>11.826904296875</v>
-      </c>
-      <c r="G4" s="7">
-        <v>14.887939453125</v>
-      </c>
-      <c r="H4" s="5">
-        <v>616458</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
-        <v>28.324999999999999</v>
-      </c>
-      <c r="C5" s="6">
-        <v>43.5</v>
-      </c>
-      <c r="D5" s="6">
-        <v>34.90625</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3.119140625</v>
-      </c>
-      <c r="F5" s="7">
-        <v>11.127197265625</v>
-      </c>
-      <c r="G5" s="7">
-        <v>14.246337890625</v>
-      </c>
-      <c r="H5" s="5">
-        <v>602315</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6">
-        <v>29.725000000000001</v>
-      </c>
-      <c r="C6" s="6">
-        <v>44.291666666666664</v>
-      </c>
-      <c r="D6" s="6">
-        <v>32.125</v>
-      </c>
-      <c r="E6" s="7">
-        <v>2.909423828125</v>
-      </c>
-      <c r="F6" s="7">
-        <v>10.700439453125</v>
-      </c>
-      <c r="G6" s="7">
-        <v>13.60986328125</v>
-      </c>
-      <c r="H6" s="5">
-        <v>609808</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
-        <v>29.45</v>
-      </c>
-      <c r="C7" s="6">
-        <v>44.125</v>
-      </c>
-      <c r="D7" s="6">
-        <v>32.125</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3.28515625</v>
-      </c>
-      <c r="F7" s="7">
-        <v>11.712646484375</v>
-      </c>
-      <c r="G7" s="7">
-        <v>14.997802734375</v>
-      </c>
-      <c r="H7" s="5">
-        <v>606344</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
-        <v>29.324999999999999</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44.75</v>
-      </c>
-      <c r="D8" s="6">
-        <v>32.125</v>
-      </c>
-      <c r="E8" s="7">
-        <v>3.236328125</v>
-      </c>
-      <c r="F8" s="7">
-        <v>11.82470703125</v>
-      </c>
-      <c r="G8" s="7">
-        <v>15.06103515625</v>
-      </c>
-      <c r="H8" s="5">
-        <v>608695</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
-        <v>29.925000000000001</v>
-      </c>
-      <c r="C9" s="6">
-        <v>46.791666666666664</v>
-      </c>
-      <c r="D9" s="6">
-        <v>34.4375</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3.017822265625</v>
-      </c>
-      <c r="F9" s="7">
-        <v>11.83349609375</v>
-      </c>
-      <c r="G9" s="7">
-        <v>14.851318359375</v>
-      </c>
-      <c r="H9" s="5">
-        <v>632187</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
-        <v>28.95</v>
-      </c>
-      <c r="C10" s="6">
-        <v>46.875</v>
-      </c>
-      <c r="D10" s="6">
-        <v>33.96875</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3.364501953125</v>
-      </c>
-      <c r="F10" s="7">
-        <v>12.55419921875</v>
-      </c>
-      <c r="G10" s="7">
-        <v>15.918701171875</v>
-      </c>
-      <c r="H10" s="5">
-        <v>620868</v>
-      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6">
-        <v>27.75</v>
-      </c>
-      <c r="C11" s="6">
-        <v>43.75</v>
-      </c>
-      <c r="D11" s="6">
-        <v>33.3125</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3.236572265625</v>
-      </c>
-      <c r="F11" s="7">
-        <v>11.509765625</v>
-      </c>
-      <c r="G11" s="7">
-        <v>14.746337890625</v>
-      </c>
-      <c r="H11" s="5">
-        <v>596360</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6">
-        <v>27.975000000000001</v>
-      </c>
-      <c r="C12" s="6">
-        <v>44.458333333333336</v>
-      </c>
-      <c r="D12" s="6">
-        <v>33</v>
-      </c>
-      <c r="E12" s="7">
-        <v>3.1416015625</v>
-      </c>
-      <c r="F12" s="7">
-        <v>11.53369140625</v>
-      </c>
-      <c r="G12" s="7">
-        <v>14.67529296875</v>
-      </c>
-      <c r="H12" s="5">
-        <v>610449</v>
-      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
@@ -1415,63 +1257,33 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4">
@@ -1483,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
@@ -1769,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
@@ -1789,19 +1601,19 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/EPCCMGCutoverTemplate.xlsx
+++ b/scripts/EPCCMGCutoverTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>用户数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>SHSAEGW36BNK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHSAEGW37BNK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +631,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1076,7 +1080,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1257,7 +1261,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1277,7 +1281,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>

--- a/scripts/EPCCMGCutoverTemplate.xlsx
+++ b/scripts/EPCCMGCutoverTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>用户数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>SHSAEGW37BNK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHSAEGW34BNK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1077,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1261,7 +1265,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1271,7 +1275,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1281,7 +1285,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1289,29 +1293,19 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4">
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4">
         <v>43404.875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>6</v>
@@ -1321,23 +1315,23 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6">
-        <v>30.1</v>
-      </c>
-      <c r="C23" s="6">
-        <v>59.916666666666664</v>
-      </c>
-      <c r="D23" s="6">
-        <v>27.03125</v>
-      </c>
-      <c r="E23" s="7">
-        <v>4.182861328125</v>
-      </c>
-      <c r="F23" s="7">
-        <v>15.127197265625</v>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="G23" s="7">
         <v>19.31005859375</v>
@@ -1348,22 +1342,22 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="6">
-        <v>26.425000000000001</v>
+        <v>30.1</v>
       </c>
       <c r="C24" s="6">
-        <v>45.75</v>
+        <v>59.916666666666664</v>
       </c>
       <c r="D24" s="6">
-        <v>28.90625</v>
+        <v>27.03125</v>
       </c>
       <c r="E24" s="7">
-        <v>3.118896484375</v>
+        <v>4.182861328125</v>
       </c>
       <c r="F24" s="7">
-        <v>13.86669921875</v>
+        <v>15.127197265625</v>
       </c>
       <c r="G24" s="7">
         <v>16.985595703125</v>
@@ -1374,22 +1368,22 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="6">
-        <v>25.5</v>
+        <v>26.425000000000001</v>
       </c>
       <c r="C25" s="6">
-        <v>39.541666666666664</v>
+        <v>45.75</v>
       </c>
       <c r="D25" s="6">
-        <v>29.875</v>
+        <v>28.90625</v>
       </c>
       <c r="E25" s="7">
-        <v>4.00634765625</v>
+        <v>3.118896484375</v>
       </c>
       <c r="F25" s="7">
-        <v>12.248046875</v>
+        <v>13.86669921875</v>
       </c>
       <c r="G25" s="7">
         <v>16.25439453125</v>
@@ -1400,22 +1394,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="6">
-        <v>26.925000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="C26" s="6">
-        <v>40.583333333333336</v>
+        <v>39.541666666666664</v>
       </c>
       <c r="D26" s="6">
-        <v>26.25</v>
+        <v>29.875</v>
       </c>
       <c r="E26" s="7">
-        <v>3.102783203125</v>
+        <v>4.00634765625</v>
       </c>
       <c r="F26" s="7">
-        <v>10.691650390625</v>
+        <v>12.248046875</v>
       </c>
       <c r="G26" s="7">
         <v>13.79443359375</v>
@@ -1426,22 +1420,22 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="6">
-        <v>26.55</v>
+        <v>26.925000000000001</v>
       </c>
       <c r="C27" s="6">
-        <v>42.541666666666664</v>
+        <v>40.583333333333336</v>
       </c>
       <c r="D27" s="6">
-        <v>26.1875</v>
+        <v>26.25</v>
       </c>
       <c r="E27" s="7">
-        <v>4.114501953125</v>
+        <v>3.102783203125</v>
       </c>
       <c r="F27" s="7">
-        <v>13.299560546875</v>
+        <v>10.691650390625</v>
       </c>
       <c r="G27" s="7">
         <v>17.4140625</v>
@@ -1452,22 +1446,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="6">
-        <v>26.324999999999999</v>
+        <v>26.55</v>
       </c>
       <c r="C28" s="6">
-        <v>42.458333333333336</v>
+        <v>42.541666666666664</v>
       </c>
       <c r="D28" s="6">
-        <v>26.125</v>
+        <v>26.1875</v>
       </c>
       <c r="E28" s="7">
-        <v>4.0283203125</v>
+        <v>4.114501953125</v>
       </c>
       <c r="F28" s="7">
-        <v>13.634521484375</v>
+        <v>13.299560546875</v>
       </c>
       <c r="G28" s="7">
         <v>17.662841796875</v>
@@ -1478,22 +1472,22 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="6">
-        <v>26.875</v>
+        <v>26.324999999999999</v>
       </c>
       <c r="C29" s="6">
-        <v>47.083333333333336</v>
+        <v>42.458333333333336</v>
       </c>
       <c r="D29" s="6">
-        <v>28.75</v>
+        <v>26.125</v>
       </c>
       <c r="E29" s="7">
-        <v>2.855224609375</v>
+        <v>4.0283203125</v>
       </c>
       <c r="F29" s="7">
-        <v>11.830078125</v>
+        <v>13.634521484375</v>
       </c>
       <c r="G29" s="7">
         <v>14.685302734375</v>
@@ -1504,22 +1498,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="6">
-        <v>26.125</v>
+        <v>26.875</v>
       </c>
       <c r="C30" s="6">
-        <v>47</v>
+        <v>47.083333333333336</v>
       </c>
       <c r="D30" s="6">
-        <v>28.34375</v>
+        <v>28.75</v>
       </c>
       <c r="E30" s="7">
-        <v>3.68798828125</v>
+        <v>2.855224609375</v>
       </c>
       <c r="F30" s="7">
-        <v>13.38427734375</v>
+        <v>11.830078125</v>
       </c>
       <c r="G30" s="7">
         <v>17.072265625</v>
@@ -1530,22 +1524,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="6">
-        <v>25.024999999999999</v>
+        <v>26.125</v>
       </c>
       <c r="C31" s="6">
-        <v>42.916666666666664</v>
+        <v>47</v>
       </c>
       <c r="D31" s="6">
-        <v>27.8125</v>
+        <v>28.34375</v>
       </c>
       <c r="E31" s="7">
-        <v>3.82763671875</v>
+        <v>3.68798828125</v>
       </c>
       <c r="F31" s="7">
-        <v>12.2890625</v>
+        <v>13.38427734375</v>
       </c>
       <c r="G31" s="7">
         <v>16.11669921875</v>
@@ -1556,22 +1550,22 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="6">
-        <v>25.5</v>
+        <v>25.024999999999999</v>
       </c>
       <c r="C32" s="6">
-        <v>45.666666666666664</v>
+        <v>42.916666666666664</v>
       </c>
       <c r="D32" s="6">
-        <v>27.5625</v>
+        <v>27.8125</v>
       </c>
       <c r="E32" s="7">
-        <v>3.552734375</v>
+        <v>3.82763671875</v>
       </c>
       <c r="F32" s="7">
-        <v>12.682373046875</v>
+        <v>12.2890625</v>
       </c>
       <c r="G32" s="7">
         <v>16.235107421875</v>
@@ -1580,43 +1574,63 @@
         <v>619549</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="C33" s="6">
+        <v>45.666666666666664</v>
+      </c>
+      <c r="D33" s="6">
+        <v>27.5625</v>
+      </c>
+      <c r="E33" s="7">
+        <v>3.552734375</v>
+      </c>
+      <c r="F33" s="7">
+        <v>12.682373046875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>23</v>
       </c>
     </row>
